--- a/MeasuredAngles.xlsx
+++ b/MeasuredAngles.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinraming/Documents/MatLab/PMAA_Fracture/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mar_ten/Documents/PMAA_Fracture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F77EB60-530A-A749-862D-815A1B1EEF2A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="520" windowWidth="25440" windowHeight="14520" xr2:uid="{AC23CD0A-EEAB-E949-A29B-C0FEBB2ABCE9}"/>
+    <workbookView xWindow="21920" yWindow="10860" windowWidth="25440" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -393,11 +398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F8D00-9E9C-7B4D-831E-3F561230D99F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,6 +482,19 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>17.515000000000001</v>
+      </c>
+      <c r="C5">
+        <v>17.707000000000001</v>
+      </c>
+      <c r="D5">
+        <v>21.404</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>19.555500000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">

--- a/MeasuredAngles.xlsx
+++ b/MeasuredAngles.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mar_ten/Documents/PMAA_Fracture/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nik\Desktop\PMAA_Fracture\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21920" yWindow="10860" windowWidth="25440" windowHeight="14520"/>
+    <workbookView xWindow="21915" yWindow="10860" windowWidth="25440" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -402,12 +402,17 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -442,97 +447,97 @@
         <v>4.3624999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <v>1.482</v>
+      </c>
+      <c r="D3">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(C3:D3)</f>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>2.7</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.91200000000000003</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E11" si="0">AVERAGE(C3:D3)</f>
+      <c r="E4">
+        <f>AVERAGE(C4:D4)</f>
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1.5</v>
-      </c>
-      <c r="C4">
-        <v>1.482</v>
-      </c>
-      <c r="D4">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>7.5389999999999997</v>
+      </c>
+      <c r="C5">
+        <v>14.884</v>
+      </c>
+      <c r="D5">
+        <v>13.23</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(C5:D5)</f>
+        <v>14.057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>12.637</v>
+      </c>
+      <c r="C6">
+        <v>9.7669999999999995</v>
+      </c>
+      <c r="D6">
+        <v>9.9350000000000005</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(C6:D6)</f>
+        <v>9.8509999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>17.515000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>17.707000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>21.404</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="E7">
+        <f>AVERAGE(C7:D7)</f>
         <v>19.555500000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>7.5389999999999997</v>
-      </c>
-      <c r="C6">
-        <v>14.884</v>
-      </c>
-      <c r="D6">
-        <v>13.23</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>14.057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>12.637</v>
-      </c>
-      <c r="C7">
-        <v>9.7669999999999995</v>
-      </c>
-      <c r="D7">
-        <v>9.9350000000000005</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>9.8509999999999991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -546,47 +551,47 @@
         <v>24.440999999999999</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C8:D8)</f>
         <v>20.775500000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>27.260999999999999</v>
+      </c>
+      <c r="C9">
+        <v>31.54</v>
+      </c>
+      <c r="D9">
+        <v>32.591000000000001</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGE(C9:D9)</f>
+        <v>32.0655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>35.734999999999999</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>43.378</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>44.524999999999999</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+      <c r="E10">
+        <f>AVERAGE(C10:D10)</f>
         <v>43.951499999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>27.260999999999999</v>
-      </c>
-      <c r="C10">
-        <v>31.54</v>
-      </c>
-      <c r="D10">
-        <v>32.591000000000001</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>32.0655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -600,11 +605,14 @@
         <v>58.031999999999996</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C11:D11)</f>
         <v>58.561</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E11">
+    <sortCondition ref="B2:B11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>